--- a/app/config/tables/medicamento_administrado/forms/medicamento_administrado/medicamento_administrado.xlsx
+++ b/app/config/tables/medicamento_administrado/forms/medicamento_administrado/medicamento_administrado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\medicamento_administrado\forms\medicamento_administrado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C40513-6ED7-41F4-9E86-43BA939D5209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197835C7-CDD2-4DBB-9239-5B33A1D143E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="14400" windowWidth="13680" windowHeight="4410" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14385" yWindow="15450" windowWidth="13680" windowHeight="4410" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="model" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
   <si>
     <t>type</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>instance_name</t>
+  </si>
+  <si>
+    <t>display.adate.fromYear</t>
+  </si>
+  <si>
+    <t>display.adate.toYear</t>
   </si>
 </sst>
 </file>
@@ -908,7 +914,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -983,13 +989,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" activeCellId="1" sqref="D4:D10 F4:F10"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1003,15 +1009,17 @@
     <col min="7" max="7" width="63" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="29.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="5"/>
-    <col min="12" max="12" width="28.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17" style="2" customWidth="1"/>
-    <col min="14" max="14" width="60" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="10.75" style="2"/>
+    <col min="10" max="10" width="14.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="5"/>
+    <col min="14" max="14" width="28.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17" style="2" customWidth="1"/>
+    <col min="16" max="16" width="60" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
@@ -1039,50 +1047,56 @@
       <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="6"/>
@@ -1091,10 +1105,10 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L2" s="3"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>45</v>
       </c>
@@ -1105,7 +1119,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="11" t="s">
@@ -1120,7 +1134,7 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="11" t="s">
@@ -1134,8 +1148,14 @@
         <v>69</v>
       </c>
       <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J5" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="11" t="s">
@@ -1150,7 +1170,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="11" t="s">
@@ -1165,7 +1185,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="11" t="s">
@@ -1182,7 +1202,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>44</v>
       </c>
@@ -1193,7 +1213,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D10" s="7" t="s">
         <v>70</v>
       </c>
@@ -1205,7 +1225,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>47</v>
       </c>
@@ -1213,7 +1233,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
@@ -1221,63 +1241,23 @@
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-    </row>
   </sheetData>
-  <autoFilter ref="D1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>

--- a/app/config/tables/medicamento_administrado/forms/medicamento_administrado/medicamento_administrado.xlsx
+++ b/app/config/tables/medicamento_administrado/forms/medicamento_administrado/medicamento_administrado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\medicamento_administrado\forms\medicamento_administrado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197835C7-CDD2-4DBB-9239-5B33A1D143E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940B194B-3A4A-477F-A3D8-1571C45E64D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="15450" windowWidth="13680" windowHeight="4410" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="1875" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
   <si>
     <t>type</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>display.adate.toYear</t>
+  </si>
+  <si>
+    <t>inclusaoformID</t>
+  </si>
+  <si>
+    <t>visitaformID</t>
   </si>
 </sst>
 </file>
@@ -991,7 +997,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1964,8 +1970,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2039,11 +2045,20 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>

--- a/app/config/tables/medicamento_administrado/forms/medicamento_administrado/medicamento_administrado.xlsx
+++ b/app/config/tables/medicamento_administrado/forms/medicamento_administrado/medicamento_administrado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\medicamento_administrado\forms\medicamento_administrado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940B194B-3A4A-477F-A3D8-1571C45E64D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A2083B-D142-4A7B-A2BB-3E263540A4F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="1875" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
   <si>
     <t>type</t>
   </si>
@@ -234,21 +234,9 @@
     <t>fieldName</t>
   </si>
   <si>
-    <t>concat(data('letra_sticker'),data('numero_sticker'))</t>
-  </si>
-  <si>
-    <t>codigo_manual</t>
-  </si>
-  <si>
     <t>DOB_ou_idade</t>
   </si>
   <si>
-    <t>ano_em_mes</t>
-  </si>
-  <si>
-    <t>(data('ano')*12) + data('mes')</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -313,6 +301,27 @@
   </si>
   <si>
     <t>visitaformID</t>
+  </si>
+  <si>
+    <t>outrodiaformID</t>
+  </si>
+  <si>
+    <t>hoje</t>
+  </si>
+  <si>
+    <t>adate.today()</t>
+  </si>
+  <si>
+    <t>nao_data</t>
+  </si>
+  <si>
+    <t>adate.hasUncertainty(data('date_adm'))</t>
+  </si>
+  <si>
+    <t>nao_futuro</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(calculates.hoje(),data('date_adm'))</t>
   </si>
 </sst>
 </file>
@@ -947,7 +956,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -963,7 +972,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -971,15 +980,15 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -998,10 +1007,10 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="J1:K1048576"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1054,10 +1063,10 @@
         <v>20</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1133,10 +1142,10 @@
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H4" s="9"/>
     </row>
@@ -1148,10 +1157,10 @@
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H5" s="9"/>
       <c r="J5" s="2">
@@ -1165,14 +1174,14 @@
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H6" s="9"/>
     </row>
@@ -1184,10 +1193,10 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H7" s="9"/>
     </row>
@@ -1201,10 +1210,10 @@
         <v>41</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H8" s="9"/>
     </row>
@@ -1213,7 +1222,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1221,14 +1230,14 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D10" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -1326,7 +1335,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1337,7 +1346,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -1922,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1942,23 +1951,27 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1970,8 +1983,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1993,7 +2006,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2001,7 +2014,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2009,15 +2022,15 @@
         <v>55</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2025,7 +2038,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2033,15 +2046,15 @@
         <v>9</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2049,7 +2062,7 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2057,11 +2070,16 @@
         <v>52</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>

--- a/app/config/tables/medicamento_administrado/forms/medicamento_administrado/medicamento_administrado.xlsx
+++ b/app/config/tables/medicamento_administrado/forms/medicamento_administrado/medicamento_administrado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\medicamento_administrado\forms\medicamento_administrado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A2083B-D142-4A7B-A2BB-3E263540A4F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8C1835-2A61-44CC-854E-2A3657D20E96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
   <si>
     <t>type</t>
   </si>
@@ -321,7 +321,28 @@
     <t>nao_futuro</t>
   </si>
   <si>
-    <t>adate.diffInDays(calculates.hoje(),data('date_adm'))</t>
+    <t>erro_data</t>
+  </si>
+  <si>
+    <t>calculates.nao_data() || calculates.nao_futuro()&lt;0</t>
+  </si>
+  <si>
+    <t>calculates.erro_data()</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Não se admite falta de informação na datas e nem as datas no futuro</t>
+  </si>
+  <si>
+    <t>Por favor verifica verifica de novo a data introduzida</t>
+  </si>
+  <si>
+    <t>!calculates.erro_data()</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_adm'),calculates.hoje())</t>
   </si>
 </sst>
 </file>
@@ -1004,13 +1025,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1262,14 +1283,38 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D15" s="7"/>
+    <row r="15" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D15" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -1929,10 +1974,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1970,7 +2015,15 @@
         <v>92</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/medicamento_administrado/forms/medicamento_administrado/medicamento_administrado.xlsx
+++ b/app/config/tables/medicamento_administrado/forms/medicamento_administrado/medicamento_administrado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\medicamento_administrado\forms\medicamento_administrado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8C1835-2A61-44CC-854E-2A3657D20E96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C092C52D-B35B-4632-86EC-217B8DCFEA2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="8685" windowWidth="19500" windowHeight="10185" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -1031,7 +1031,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1977,7 +1977,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
